--- a/src/resources/excel/Book1.xlsx
+++ b/src/resources/excel/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trozdamv/IdeaProjects/justanothertestjob/src/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{300E4D55-AC6B-CD4A-BE28-736B9C8B8F26}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{11C81A08-9AA2-5F42-A961-7C71AD3655C8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16040" xr2:uid="{E1662534-E847-2E42-8F79-40B3119AC429}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16040" xr2:uid="{860D380A-287A-8B4A-B764-2C28BE835FB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,15 +25,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>daralı</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="21">
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>https://www.trendyol.com/Hotic---Yaz--Kis-Koleksiyonu/ButikDetay/309841/Erkek</t>
+  </si>
+  <si>
+    <t>https://www.trendyol.com/Avva---Erkek-Tekstil/ButikDetay/309672/Erkek</t>
+  </si>
+  <si>
+    <t>https://www.trendyol.com/TRENDYOL-MAN---Yeni-Koleksiyon/ButikDetay/309419/Erkek</t>
+  </si>
+  <si>
+    <t>https://www.trendyol.com/Haftanin-cok-Satanlari---Elektronik/ButikDetay/309684/Erkek</t>
+  </si>
+  <si>
+    <t>https://www.trendyol.com/inci---Yaz--Kis-Koleksiyonu/ButikDetay/309384/Erkek</t>
+  </si>
+  <si>
+    <t>https://www.trendyol.com/Siyah-inci---Pijama--ic-Giyim/ButikDetay/309911/Erkek</t>
+  </si>
+  <si>
+    <t>https://www.trendyol.com/Pierre-Cardin---Erkek-Tekstil/ButikDetay/309922/Erkek</t>
+  </si>
+  <si>
+    <t>https://www.trendyol.com/Hummel/ButikDetay/309773/Erkek</t>
+  </si>
+  <si>
+    <t>https://www.trendyol.com/Madmext---Erkek-Tekstil/ButikDetay/308733/Erkek</t>
+  </si>
+  <si>
+    <t>https://www.trendyol.com/In-Street/ButikDetay/308459/Erkek</t>
+  </si>
+  <si>
+    <t>https://www.trendyol.com/Nike---Kadin--Erkek-Spor-Giyim/ButikDetay/309924/Erkek</t>
+  </si>
+  <si>
+    <t>https://www.trendyol.com/Soho-Exclusive--Soho-Men---Yeni-Sezon/ButikDetay/309610/Erkek</t>
+  </si>
+  <si>
+    <t>https://www.trendyol.com/Jack--Jones/ButikDetay/309732/Erkek</t>
+  </si>
+  <si>
+    <t>https://www.trendyol.com/mavi---Yeni-Sezon/ButikDetay/309765/Erkek</t>
+  </si>
+  <si>
+    <t>https://www.trendyol.com/Levi-s/ButikDetay/309768/Erkek</t>
+  </si>
+  <si>
+    <t>https://www.trendyol.com/Saatte-indirim-Zamani/ButikDetay/308990/Erkek</t>
+  </si>
+  <si>
+    <t>https://www.trendyol.com/Her-sey-Eviniz-icin/ButikDetay/306463/Erkek</t>
+  </si>
+  <si>
+    <t>https://www.trendyol.com/Dark-Seer---Ayakkabi--Bot/ButikDetay/305562/Erkek</t>
+  </si>
+  <si>
+    <t>https://www.trendyol.com/Sneaker-Culture/ButikDetay/309800/Erkek</t>
+  </si>
+  <si>
+    <t>https://www.trendyol.com/Ray-Ban--Emporio-Armani--Vogue---Gunes-Gozlugu-Koleksiyonu/ButikDetay/308989/Erkek</t>
   </si>
 </sst>
 </file>
@@ -386,32 +440,323 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BDF139B-61EB-254F-94B8-29647A619441}">
-  <dimension ref="A2:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C56FB2C7-3C8D-6F4C-99C2-01A2D5397BC1}">
+  <dimension ref="A2:B63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E22" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="23.5" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="15.6640625" collapsed="true"/>
-  </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>1</v>
+      <c r="B3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
